--- a/SPPSApi/Doc/Template/FS0302.xlsx
+++ b/SPPSApi/Doc/Template/FS0302.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E4B35-F209-49B4-83A7-1A3F07B3376C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110373C-1536-40D6-9828-4FAE27BD7670}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D04BE8A-BC86-42AF-AFE9-F87C83B58D12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>SPI NO</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 处理日</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> シート名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ファイル名</t>
   </si>
 </sst>
 </file>
@@ -474,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F803F50-85E4-435C-94BD-96C550851336}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,7 +483,7 @@
     <col min="23" max="23" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,12 +552,6 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0302.xlsx
+++ b/SPPSApi/Doc/Template/FS0302.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110373C-1536-40D6-9828-4FAE27BD7670}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D04BE8A-BC86-42AF-AFE9-F87C83B58D12}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
@@ -214,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -266,7 +260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,30 +454,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F803F50-85E4-435C-94BD-96C550851336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="14.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="16.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +551,13 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"新车新设,供应商变更-新设,供应商变更-废止,包装工厂变更-新设,包装工场变更-废止,生产打切,一括生产,复活,防锈变更,价格调整,时间调整,设变新设,使用追加,使用废止,实施时期变更,打切旧型,设变废止,设变旧型,旧型恢复现号,旧型持续生产,工程变更-新设,工程变更-废止"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SPPSApi/Doc/Template/FS0302.xlsx
+++ b/SPPSApi/Doc/Template/FS0302.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09485341-1A9A-4FC0-8145-D3E5DA2A988D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="4068" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SPI NO</t>
   </si>
@@ -90,12 +96,16 @@
   </si>
   <si>
     <t xml:space="preserve"> 处理日</t>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\/mm\/dd"/>
   </numFmts>
@@ -454,32 +464,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="19" max="19" width="16.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.875" style="1"/>
+    <col min="19" max="19" width="16.44140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,13 +558,16 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"新车新设,供应商变更-新设,供应商变更-废止,包装工厂变更-新设,包装工场变更-废止,生产打切,一括生产,复活,防锈变更,价格调整,时间调整,设变新设,使用追加,使用废止,实施时期变更,打切旧型,设变废止,设变旧型,旧型恢复现号,旧型持续生产,工程变更-新设,工程变更-废止"</formula1>
     </dataValidation>
   </dataValidations>
